--- a/uni9.xlsx
+++ b/uni9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\单词\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9D41AF-7FF1-4836-9BAA-834729DD9D01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA9FE8-769B-418E-B5D7-1EF0675DD5E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4137" yWindow="1633" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
-  <si>
-    <t>自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>第二行内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,13 +366,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -391,8 +400,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -673,349 +684,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="35.5" customWidth="1"/>
+    <col min="1" max="4" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>74</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>